--- a/Pruebas Proyecto.xlsx
+++ b/Pruebas Proyecto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielagonzalez/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielagonzalez/Documents/PROYECTO_FINAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FF5C12-9168-1D4C-A983-4AAE12C49964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84D2075-F2B7-B64D-9CB8-5DE3869D6F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="33600" windowHeight="18760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Nombre del proyecto:</t>
   </si>
@@ -174,6 +174,21 @@
   </si>
   <si>
     <t>Es una web para la gestion de socios, actividades y sucursales a ser usada por los empleados de un gimnasio</t>
+  </si>
+  <si>
+    <t>Caso #6</t>
+  </si>
+  <si>
+    <t>BORRADO DE ACTIVIDADES, SOCIOS, SUCURSALES SOLO PUEDE SER REALIZADO POR UN SUPERUSUARIO</t>
+  </si>
+  <si>
+    <t>LOS USUARIOS STAFF NO PODRAN BORRAR DATOS DE LA BASE DE DATOS</t>
+  </si>
+  <si>
+    <t>AL PRESIONAR BORRAR SI NO ES UN SUPERUSUARIO APARECE MENSAJE NO TIENE PERMISOS PARA BORRAR</t>
+  </si>
+  <si>
+    <t>SOLO LOS SUPERUSUARIOS PODRAN BORRAR DATOS Y LES APARECE LUEGO DE PRESIONAREL BOTON BORRAR? ESTA SEGURO QUE DESEA BORRAR(DESCRIPCION)?</t>
   </si>
 </sst>
 </file>
@@ -289,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -319,20 +334,17 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,7 +564,7 @@
   <dimension ref="A1:Z989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -771,146 +783,200 @@
       <c r="Z9" s="9"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="16">
         <v>45646</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="17"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="17"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="17"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="17"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="16">
         <v>45646</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="17"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="17"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="17"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="17"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="16"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="17"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="16"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="15">
+        <v>45646</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="14"/>
+    </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1875,21 +1941,28 @@
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="21">
     <mergeCell ref="D15:D21"/>
     <mergeCell ref="E15:E21"/>
     <mergeCell ref="F15:F21"/>
     <mergeCell ref="G15:G21"/>
     <mergeCell ref="B15:B21"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="G22:G26"/>
     <mergeCell ref="A15:A21"/>
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="C10:C14"/>
     <mergeCell ref="D10:D14"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="A10:A14"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
